--- a/Structural/Behavioral Model/CSPEC/PassengerCSPEC.xlsx
+++ b/Structural/Behavioral Model/CSPEC/PassengerCSPEC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/UberSEA-master/Structural/Behavioral Model/CSPEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Login</t>
   </si>
@@ -50,19 +50,31 @@
     <t>Delete Account</t>
   </si>
   <si>
-    <t>مشخص کردن مبدا و مقصد</t>
-  </si>
-  <si>
-    <t>درخواست سفر</t>
-  </si>
-  <si>
-    <t>پرداخت</t>
-  </si>
-  <si>
     <t>State: 4</t>
   </si>
   <si>
     <t>Passenger CSPEC</t>
+  </si>
+  <si>
+    <t>State: 5</t>
+  </si>
+  <si>
+    <t>Increase credit</t>
+  </si>
+  <si>
+    <t>Choose origin destination</t>
+  </si>
+  <si>
+    <t>Request travel</t>
+  </si>
+  <si>
+    <t>Cancel travel</t>
+  </si>
+  <si>
+    <t>Driver found</t>
+  </si>
+  <si>
+    <t>Travel Finished</t>
   </si>
 </sst>
 </file>
@@ -383,7 +395,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -393,7 +405,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -408,9 +420,11 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -432,7 +446,9 @@
       <c r="F2" s="1">
         <v>-4</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>-42</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -454,7 +470,9 @@
       <c r="F3" s="1">
         <v>-8</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>-43</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -476,7 +494,9 @@
       <c r="F4" s="1">
         <v>-12</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>-44</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -498,103 +518,153 @@
       <c r="F5" s="1">
         <v>-16</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>-45</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>-17</v>
+        <v>-29</v>
       </c>
       <c r="C6" s="1">
-        <v>-18</v>
+        <v>-30</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>-19</v>
+        <v>-31</v>
       </c>
       <c r="F6" s="1">
-        <v>-20</v>
-      </c>
-      <c r="G6" s="1"/>
+        <v>-32</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-46</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>-21</v>
+        <v>-17</v>
       </c>
       <c r="C7" s="1">
-        <v>-22</v>
+        <v>-18</v>
       </c>
       <c r="D7" s="1">
-        <v>-23</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>-19</v>
       </c>
       <c r="F7" s="1">
-        <v>-24</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-47</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
+        <v>-21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-23</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-48</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
         <v>-25</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>-26</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>-27</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>-28</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>-49</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-36</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-50</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-37</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-39</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-41</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">

--- a/Structural/Behavioral Model/CSPEC/PassengerCSPEC.xlsx
+++ b/Structural/Behavioral Model/CSPEC/PassengerCSPEC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Desktop/UberSEA-master/Structural/Behavioral Model/CSPEC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadi/Downloads/Telegram Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Login</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Travel Finished</t>
+  </si>
+  <si>
+    <t>Check Notification</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,13 +671,27 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-51</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-52</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-53</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-54</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
